--- a/SpaOnline/ModeloDominio/Maestro Muestreo de Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Maestro Muestreo de Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="688" documentId="8_{2DE1B22A-FFC5-4559-A1FB-1A8C76F63835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42399614-EE3D-488E-AEC2-6DEB32CD762E}"/>
+  <xr:revisionPtr revIDLastSave="934" documentId="8_{2DE1B22A-FFC5-4559-A1FB-1A8C76F63835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFD1F89A-4984-4EFA-BFBF-EA7D8FA7C833}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{E97E5C00-5A89-4DD9-BF1F-FD5D66024408}"/>
+    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="7" xr2:uid="{E97E5C00-5A89-4DD9-BF1F-FD5D66024408}"/>
   </bookViews>
   <sheets>
     <sheet name="MaestroMuestreo" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,9 @@
     <sheet name="InformacionBase - Muestreo Dato" sheetId="8" r:id="rId9"/>
     <sheet name="Facturacion - Muestreo Datos" sheetId="9" r:id="rId10"/>
     <sheet name="Servicios - Muestreo Datos" sheetId="10" r:id="rId11"/>
-    <sheet name="CentroEventos - Muestreo Datos" sheetId="11" r:id="rId12"/>
-    <sheet name="Notificaciones - Muestreo Datos" sheetId="12" r:id="rId13"/>
-    <sheet name="Pagos - Muestreo Datos" sheetId="13" r:id="rId14"/>
+    <sheet name="Notificaciones - Muestreo Datos" sheetId="12" r:id="rId12"/>
+    <sheet name="Pagos - Muestreo Datos" sheetId="13" r:id="rId13"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="178">
   <si>
     <t>Productos</t>
   </si>
@@ -127,9 +122,6 @@
     <t>Dermatodo</t>
   </si>
   <si>
-    <t>NombreProducto</t>
-  </si>
-  <si>
     <t>Fabricante</t>
   </si>
   <si>
@@ -139,12 +131,6 @@
     <t>Dermalogica Daily Microfoliant</t>
   </si>
   <si>
-    <t>Lubriderm Daily Moisture Lotion</t>
-  </si>
-  <si>
-    <t>ProductoporFabricante</t>
-  </si>
-  <si>
     <t>Crema de Día Anti-edad</t>
   </si>
   <si>
@@ -532,33 +518,12 @@
     <t>Oferta</t>
   </si>
   <si>
-    <t>Reserva - 1</t>
-  </si>
-  <si>
-    <t>Factura 1</t>
-  </si>
-  <si>
-    <t>Evento</t>
-  </si>
-  <si>
     <t>OfertaPedicura</t>
   </si>
   <si>
-    <t>OfertaPedicura Madres</t>
-  </si>
-  <si>
-    <t>OfertaFacial San Valentin</t>
-  </si>
-  <si>
-    <t>OfertaMasaje Black Friday</t>
-  </si>
-  <si>
     <t>Notificacion de</t>
   </si>
   <si>
-    <t>ValorTotal</t>
-  </si>
-  <si>
     <t>Pedicura Spa-100000 - Tratamiento Facial Antiedad-120000</t>
   </si>
   <si>
@@ -578,6 +543,45 @@
   </si>
   <si>
     <t>Pago</t>
+  </si>
+  <si>
+    <t>Daily Moisture Lotion</t>
+  </si>
+  <si>
+    <t>Valor Factura</t>
+  </si>
+  <si>
+    <t>Nathaly perez Zapata</t>
+  </si>
+  <si>
+    <t>nathaly801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camilo Saldarriaga </t>
+  </si>
+  <si>
+    <t>salda2212</t>
+  </si>
+  <si>
+    <t>Oferta de madres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oferta de San Valentin </t>
+  </si>
+  <si>
+    <t>Reserva -1</t>
+  </si>
+  <si>
+    <t>Factura - 2</t>
+  </si>
+  <si>
+    <t>Tarifa</t>
+  </si>
+  <si>
+    <t>Horario atencion</t>
+  </si>
+  <si>
+    <t>8:00 am - 18:00</t>
   </si>
 </sst>
 </file>
@@ -586,9 +590,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,12 +647,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0D0D0D"/>
       <name val="Aptos Narrow"/>
@@ -656,7 +654,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,8 +817,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -863,16 +879,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFill="1"/>
@@ -895,9 +967,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -905,36 +974,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -949,69 +999,99 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1022,10 +1102,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF88"/>
+      <color rgb="FFB0E3E6"/>
       <color rgb="FFD5739D"/>
-      <color rgb="FFB0E3E6"/>
       <color rgb="FFE1D5E7"/>
-      <color rgb="FFFFFF88"/>
       <color rgb="FFFFF2CC"/>
       <color rgb="FFFAD7AC"/>
       <color rgb="FFFFB7B7"/>
@@ -2043,6 +2123,61 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504828</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180979</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector: angular 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0527C22E-4D2A-404B-BDEF-3088D1DA2DB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7710487" y="1385889"/>
+          <a:ext cx="2009779" cy="1257302"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99763"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2050,23 +2185,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>219310</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>521804</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>75177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>200970</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38640</xdr:rowOff>
+      <xdr:colOff>421274</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>181267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB480187-FB87-B8DD-B427-620B3B0BA9F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5E6C0C-BF7D-9D1F-0957-AB4EFA4CF618}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,8 +2217,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11201635" y="1695450"/>
-          <a:ext cx="6439610" cy="3677190"/>
+          <a:off x="8680174" y="75177"/>
+          <a:ext cx="6835198" cy="2963590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2096,104 +2231,6 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>105193</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>177244</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CACC4DB-4D1D-7BBA-4B9D-E85347518AF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9086022" y="504868"/>
-          <a:ext cx="5439193" cy="2339376"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>410325</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>86247</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3615B083-4005-6BDE-7FB9-A9135AEC8D98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5581650" y="152400"/>
-          <a:ext cx="5372850" cy="3743847"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2242,7 +2279,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2344,23 +2381,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>124688</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9871</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>143788</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A9E4A7-B215-4DA5-885E-DA41B8223047}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3861C92E-845F-3B92-F617-4B1F68BB83AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,8 +2413,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8782050" y="390525"/>
-          <a:ext cx="6182588" cy="2476846"/>
+          <a:off x="10544175" y="257175"/>
+          <a:ext cx="6544588" cy="3686689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2442,23 +2479,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1685925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>753533</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19550</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>258301</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BAAD60-E49A-448C-6729-6D888AB11749}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8F3AFE-BE64-0A2A-9BC0-ECDD73816936}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,8 +2511,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9191625" y="2343150"/>
-          <a:ext cx="7582958" cy="3581900"/>
+          <a:off x="11449050" y="2133600"/>
+          <a:ext cx="8068801" cy="3991532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2497,8 +2534,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>249208</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1011208</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>131260</xdr:rowOff>
     </xdr:to>
@@ -2590,55 +2627,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1820468</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133983</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739235CA-517D-DAAD-6677-0191797C5F7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9877425" y="2076450"/>
-          <a:ext cx="8545118" cy="4534533"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -2683,54 +2671,53 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Modelo de Dominio Anemico"/>
-      <sheetName val="Objetos de dominio"/>
-      <sheetName val="Pais"/>
-      <sheetName val="Departamento"/>
-      <sheetName val="Ciudad"/>
-      <sheetName val="Sucursal"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Modelo de Dominio Anemico"/>
-      <sheetName val="Objetos de dominio"/>
-      <sheetName val="TipoServicio"/>
-      <sheetName val="Servicio"/>
-      <sheetName val="Oferta"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>172688</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>153385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204F703F-4907-3A46-0A90-50C6468EF97C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12258675" y="2943419"/>
+          <a:ext cx="7983188" cy="6353966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3050,10 +3037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068EA872-35B0-44AD-A46B-64DE97CA59D5}">
-  <dimension ref="B2:P26"/>
+  <dimension ref="B2:O26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,70 +3050,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O13" s="2"/>
-    </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G18" s="14" t="s">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O19" s="1"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="15" t="s">
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3153,7 +3136,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B90F74-D41C-4CC6-AFD5-8A0859489EFF}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3162,278 +3145,390 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="C3" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="71">
+      <c r="C4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="24" t="str">
+        <f>G26 &amp;"  "&amp;G27</f>
+        <v>Crema de Día Anti-edad-L'Oréal  Dermalogica Daily Microfoliant-Dermalogica</v>
+      </c>
+      <c r="F4" s="46">
         <v>220000</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="21" t="str">
+      <c r="G4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="20" t="str">
         <f>B4&amp;" "&amp;C4</f>
         <v>1 Martina Corrales-1234567890</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="71">
+      <c r="E5" s="24"/>
+      <c r="F5" s="46">
         <v>120000</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="21" t="str">
-        <f t="shared" ref="H5:H6" si="0">B5&amp;" "&amp;C5</f>
+      <c r="G5" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="20" t="str">
+        <f>B5&amp;" "&amp;C5</f>
         <v>2 Ramiro Ramirez-987654321</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="71">
+      <c r="E6" s="24" t="str">
+        <f t="shared" ref="E5:E6" si="0">G28</f>
+        <v>Daily Moisture Lotion-Lubridem</v>
+      </c>
+      <c r="F6" s="46">
         <v>100000</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="G6" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="20" t="str">
+        <f>B6&amp;" "&amp;C6</f>
         <v>3 Lucrecia Gomez-39789321</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="73" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="20">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>1</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="21" t="str">
-        <f>C12</f>
+      <c r="C13" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="20" t="str">
+        <f>C13</f>
         <v>Transacción 1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="20">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
         <v>2</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="21" t="str">
-        <f t="shared" ref="D13:D14" si="1">C13</f>
+      <c r="C14" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f t="shared" ref="D14:D15" si="1">C14</f>
         <v>Transacción 2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
         <v>3</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="21" t="str">
+      <c r="C15" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Transacción N</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-    </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="20">
+      <c r="C18" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="20" t="str">
+      <c r="C19" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="19" t="str">
         <f>'Reservas - Muestreo Datos'!D5</f>
         <v>3:00pm-16/03/2024</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="25" t="str">
-        <f>D18&amp;" "&amp;E18&amp;" "&amp;C18</f>
+      <c r="E19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="23" t="str">
+        <f>D19&amp;" "&amp;E19&amp;" "&amp;C19</f>
         <v>3:00pm-16/03/2024 Pedicura Spa-100000 Martina Corrales-1234567890</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
+    <row r="20" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
         <v>2</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="20" t="str">
+      <c r="C20" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="19" t="str">
         <f>'Reservas - Muestreo Datos'!D6</f>
         <v>10:00am-28/04/2024</v>
       </c>
-      <c r="E19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="25" t="str">
-        <f t="shared" ref="G19:G20" si="2">D19&amp;" "&amp;E19&amp;" "&amp;C19</f>
+      <c r="E20" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="23" t="str">
+        <f t="shared" ref="G20:G21" si="2">D20&amp;" "&amp;E20&amp;" "&amp;C20</f>
         <v>10:00am-28/04/2024 Tratamiento Facial Antiedad-120000 Ramiro Ramirez-987654321</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="20">
+    <row r="21" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
         <v>3</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="20" t="str">
+      <c r="C21" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="19" t="str">
         <f>'Reservas - Muestreo Datos'!D7</f>
         <v>12:30pm-05/05/2024</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="25" t="str">
+      <c r="E21" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="23" t="str">
         <f t="shared" si="2"/>
         <v>12:30pm-05/05/2024 Masaje Relajante-100000 Lucrecia Gomez-39789321</v>
       </c>
     </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="21">
+        <v>1</v>
+      </c>
+      <c r="C26" s="24" t="str">
+        <f>'Inventarios - Muestreo Datos'!C16</f>
+        <v>Crema de Día Anti-edad-L'Oréal</v>
+      </c>
+      <c r="D26" s="19">
+        <v>10</v>
+      </c>
+      <c r="E26" s="32">
+        <v>12000</v>
+      </c>
+      <c r="F26" s="33">
+        <v>45369</v>
+      </c>
+      <c r="G26" s="37" t="str">
+        <f>C26</f>
+        <v>Crema de Día Anti-edad-L'Oréal</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="21">
+        <v>2</v>
+      </c>
+      <c r="C27" s="24" t="str">
+        <f>'Inventarios - Muestreo Datos'!C17</f>
+        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
+      </c>
+      <c r="D27" s="19">
+        <v>50</v>
+      </c>
+      <c r="E27" s="32">
+        <v>20000</v>
+      </c>
+      <c r="F27" s="33">
+        <v>45346</v>
+      </c>
+      <c r="G27" s="37" t="str">
+        <f>C27</f>
+        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="21">
+        <v>3</v>
+      </c>
+      <c r="C28" s="24" t="str">
+        <f>'Inventarios - Muestreo Datos'!C18</f>
+        <v>Daily Moisture Lotion-Lubridem</v>
+      </c>
+      <c r="D28" s="19">
+        <v>100</v>
+      </c>
+      <c r="E28" s="32">
+        <v>14500</v>
+      </c>
+      <c r="F28" s="33">
+        <v>45262</v>
+      </c>
+      <c r="G28" s="37" t="str">
+        <f>C28</f>
+        <v>Daily Moisture Lotion-Lubridem</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B2:H2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="MaestroMuestreo!A1" display="Volver al Inicio" xr:uid="{C207AD8A-CAC0-4254-934A-DC0CC8E85F54}"/>
@@ -3445,11 +3540,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480D42DE-BE10-4854-BA9A-99F4B4B7DA5B}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:H24"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3457,288 +3550,274 @@
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="22" t="str">
+        <f>D13</f>
+        <v>Pedicura y Manicura</v>
+      </c>
+      <c r="E6" s="43">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="20" t="str">
+        <f>C6&amp;"-"&amp;E6</f>
+        <v>Pedicura Spa-100000</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="22" t="str">
+        <f t="shared" ref="D7:D8" si="0">D14</f>
+        <v>Tratamiento Facial</v>
+      </c>
+      <c r="E7" s="43">
+        <v>120000</v>
+      </c>
+      <c r="F7" s="20" t="str">
+        <f>C7&amp;"-"&amp;E7</f>
+        <v>Tratamiento Facial Antiedad-120000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="24" t="str">
-        <f>D15</f>
-        <v>Pedicura y Manicura</v>
-      </c>
-      <c r="E8" s="64">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="21" t="str">
-        <f>C8&amp;"-"&amp;E8</f>
-        <v>Pedicura Spa-100000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
-        <v>2</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="24" t="str">
-        <f t="shared" ref="D9:D10" si="0">D16</f>
-        <v>Tratamiento Facial</v>
-      </c>
-      <c r="E9" s="64">
-        <v>120000</v>
-      </c>
-      <c r="F9" s="21" t="str">
-        <f>C9&amp;"-"&amp;E9</f>
-        <v>Tratamiento Facial Antiedad-120000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
-        <v>2</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="24" t="str">
+      <c r="D8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Masaje</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E8" s="43">
         <v>100000</v>
       </c>
-      <c r="F10" s="21" t="str">
-        <f>C10&amp;"-"&amp;E10</f>
+      <c r="F8" s="20" t="str">
+        <f>C8&amp;"-"&amp;E8</f>
         <v>Masaje Relajante-100000</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="20" t="str">
+        <f>C13</f>
+        <v>Pedicura y Manicura</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19">
+        <v>2</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f>C14</f>
+        <v>Tratamiento Facial</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
+        <v>3</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="20" t="str">
+        <f>C15</f>
+        <v>Masaje</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="20">
+      <c r="D19" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
         <v>1</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="21" t="str">
-        <f>C15</f>
-        <v>Pedicura y Manicura</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="20">
+      <c r="C20" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="22" t="str">
+        <f>F6</f>
+        <v>Pedicura Spa-100000</v>
+      </c>
+      <c r="E20" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="45">
+        <v>45402</v>
+      </c>
+      <c r="H20" s="20" t="str">
+        <f>C20&amp;" "&amp;E20</f>
+        <v>OfertaPedicura 0,2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
         <v>2</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="21" t="str">
-        <f>C16</f>
-        <v>Tratamiento Facial</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="20">
+      <c r="C21" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="22" t="str">
+        <f t="shared" ref="D21:D22" si="1">F7</f>
+        <v>Tratamiento Facial Antiedad-120000</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="45">
+        <v>45403</v>
+      </c>
+      <c r="H21" s="20" t="str">
+        <f t="shared" ref="H21:H22" si="2">C21&amp;" "&amp;E21</f>
+        <v>OfertaFacial 0,25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
         <v>3</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="21" t="str">
-        <f>C17</f>
-        <v>Masaje</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
-        <v>1</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="24" t="str">
-        <f>F8</f>
-        <v>Pedicura Spa-100000</v>
-      </c>
-      <c r="E22" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="68">
-        <v>45402</v>
-      </c>
-      <c r="H22" s="20" t="str">
-        <f>'CentroEventos - Muestreo Datos'!E4</f>
-        <v>OfertaPedicura Madres</v>
-      </c>
-      <c r="I22" s="21" t="str">
-        <f>C22&amp;" "&amp;E22</f>
-        <v>OfertaPedicura 0,2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="20">
-        <v>2</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="24" t="str">
-        <f t="shared" ref="D23:D24" si="1">F9</f>
-        <v>Tratamiento Facial Antiedad-120000</v>
-      </c>
-      <c r="E23" s="67">
-        <v>0.25</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="68">
-        <v>45403</v>
-      </c>
-      <c r="H23" s="20" t="str">
-        <f>'CentroEventos - Muestreo Datos'!E5</f>
-        <v>OfertaFacial San Valentin</v>
-      </c>
-      <c r="I23" s="21" t="str">
-        <f t="shared" ref="I23:I24" si="2">C23&amp;" "&amp;E23</f>
-        <v>OfertaFacial 0,25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="20">
-        <v>3</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="24" t="str">
+      <c r="D22" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Masaje Relajante-100000</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E22" s="44">
         <v>0.15</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="68">
+      <c r="F22" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="45">
         <v>45404</v>
       </c>
-      <c r="H24" s="20" t="str">
-        <f>'CentroEventos - Muestreo Datos'!E6</f>
-        <v>OfertaMasaje Black Friday</v>
-      </c>
-      <c r="I24" s="21" t="str">
+      <c r="H22" s="20" t="str">
         <f t="shared" si="2"/>
         <v>OfertaMasaje 0,15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B18:H18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="MaestroMuestreo!A1" display="Volver al Inicio" xr:uid="{61CE4848-BEEF-44F4-91FB-6D44324D9D3E}"/>
-    <hyperlink ref="D8" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{716C980C-990A-41B1-B376-8123F4A863BD}"/>
-    <hyperlink ref="D9:D10" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{4057A649-6819-4760-9DCB-B5FE642D8392}"/>
-    <hyperlink ref="D22" location="TipoServicio!B2" display="TipoServicio!B2" xr:uid="{0532839D-7580-40C1-9104-A28CBE453C09}"/>
-    <hyperlink ref="D23:D24" location="TipoServicio!B2" display="TipoServicio!B2" xr:uid="{62E1712B-993A-430D-AAB3-7B3F1C6CD1CC}"/>
+    <hyperlink ref="D6" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{716C980C-990A-41B1-B376-8123F4A863BD}"/>
+    <hyperlink ref="D7:D8" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{4057A649-6819-4760-9DCB-B5FE642D8392}"/>
+    <hyperlink ref="D20" location="TipoServicio!B2" display="TipoServicio!B2" xr:uid="{0532839D-7580-40C1-9104-A28CBE453C09}"/>
+    <hyperlink ref="D21:D22" location="TipoServicio!B2" display="TipoServicio!B2" xr:uid="{62E1712B-993A-430D-AAB3-7B3F1C6CD1CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3746,129 +3825,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153344E0-7496-4B6C-B362-F25603ACF07A}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="21" t="str">
-        <f>C4</f>
-        <v>OfertaPedicura Madres</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
-        <v>2</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="21" t="str">
-        <f>C5</f>
-        <v>OfertaFacial San Valentin</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="21" t="str">
-        <f>C6</f>
-        <v>OfertaMasaje Black Friday</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
-        <v>4</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="21" t="str">
-        <f>C7</f>
-        <v>Reserva - 1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
-        <v>5</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="21" t="str">
-        <f>C8</f>
-        <v>Factura 1</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="MaestroMuestreo!A1" display="Volver al Inicio" xr:uid="{816C4F9A-342C-4458-AA94-090D1A955F8A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D313E00-3ADE-40BD-9F4D-4CE26A296DC1}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3880,92 +3838,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="str">
-        <f>'CentroEventos - Muestreo Datos'!E4</f>
-        <v>OfertaPedicura Madres</v>
-      </c>
-      <c r="D6" s="21" t="str">
+      <c r="C6" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="20" t="str">
         <f>B6&amp;" "&amp;C6</f>
-        <v>1 OfertaPedicura Madres</v>
+        <v>1 Oferta de madres</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="str">
-        <f>'CentroEventos - Muestreo Datos'!E5</f>
-        <v>OfertaFacial San Valentin</v>
-      </c>
-      <c r="D7" s="21" t="str">
+      <c r="C7" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="20" t="str">
         <f>B7&amp;" "&amp;C7</f>
-        <v>2 OfertaFacial San Valentin</v>
+        <v xml:space="preserve">2 Oferta de San Valentin </v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>3</v>
       </c>
-      <c r="C8" s="20" t="str">
-        <f>'CentroEventos - Muestreo Datos'!E6</f>
-        <v>OfertaMasaje Black Friday</v>
-      </c>
-      <c r="D8" s="21" t="str">
-        <f t="shared" ref="D8:D10" si="0">B8&amp;" "&amp;C8</f>
-        <v>3 OfertaMasaje Black Friday</v>
+      <c r="C8" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="20" t="str">
+        <f t="shared" ref="D8:D9" si="0">B8&amp;" "&amp;C8</f>
+        <v>3 Reserva -1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>4</v>
       </c>
-      <c r="C9" s="20" t="str">
-        <f>'CentroEventos - Muestreo Datos'!E7</f>
-        <v>Reserva - 1</v>
-      </c>
-      <c r="D9" s="21" t="str">
+      <c r="C9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>4 Reserva - 1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
-        <v>5</v>
-      </c>
-      <c r="C10" s="20" t="str">
-        <f>'CentroEventos - Muestreo Datos'!E8</f>
-        <v>Factura 1</v>
-      </c>
-      <c r="D10" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>5 Factura 1</v>
-      </c>
+        <v>4 Factura - 2</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3979,7 +3923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCAD10C-B39C-4C59-AF29-FD66206F1625}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3994,60 +3938,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="21" t="str">
+      <c r="C5" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="20" t="str">
         <f>C5</f>
         <v>Transacción 1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="21" t="str">
+      <c r="C6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="20" t="str">
         <f t="shared" ref="D6:D7" si="0">C6</f>
         <v>Transacción 2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="21" t="str">
+      <c r="C7" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Transacción N</v>
       </c>
@@ -4078,96 +4022,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21" t="str">
+      <c r="D5" s="20" t="str">
         <f>C5</f>
         <v>L'Oréal</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21" t="str">
+      <c r="D6" s="20" t="str">
         <f t="shared" ref="D6:D10" si="0">C6</f>
         <v>Dermalogica</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="21" t="str">
+      <c r="D7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Lubridem</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="21" t="str">
+      <c r="D8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Medipiel</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="D9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Piel</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="21" t="str">
+      <c r="D10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Dermatodo</v>
       </c>
@@ -4186,11 +4130,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A9BC30-84DE-4F96-B9D6-9CF0DA2E4F6C}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4198,269 +4140,278 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="33" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="18" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="22">
+      <c r="D8" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21">
         <v>1</v>
       </c>
-      <c r="C9" s="20" t="str">
-        <f>E24</f>
-        <v>L'Oréal  Crema de Día Anti-edad</v>
-      </c>
-      <c r="D9" s="20" t="str">
+      <c r="C9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="19" t="str">
         <f>D16</f>
         <v>Cuidado corporal</v>
       </c>
-      <c r="E9" s="25" t="str">
-        <f>C9&amp;" "&amp;D9</f>
-        <v>L'Oréal  Crema de Día Anti-edad Cuidado corporal</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="31">
+      <c r="E9" s="43">
+        <v>50000</v>
+      </c>
+      <c r="F9" s="19" t="str">
+        <f>D24</f>
+        <v>L'Oréal</v>
+      </c>
+      <c r="G9" s="23" t="str">
+        <f>C9&amp;"-"&amp;F9</f>
+        <v>Crema de Día Anti-edad-L'Oréal</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="27">
         <v>2</v>
       </c>
-      <c r="C10" s="20" t="str">
-        <f t="shared" ref="C10:C11" si="0">E25</f>
-        <v>Dermalogica  Dermalogica Daily Microfoliant</v>
-      </c>
-      <c r="D10" s="20" t="str">
-        <f t="shared" ref="D10:D11" si="1">D17</f>
+      <c r="C10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="19" t="str">
+        <f t="shared" ref="D10:D11" si="0">D17</f>
         <v>Cuidado facial</v>
       </c>
-      <c r="E10" s="25" t="str">
-        <f t="shared" ref="E10:E11" si="2">C10&amp;" "&amp;D10</f>
-        <v>Dermalogica  Dermalogica Daily Microfoliant Cuidado facial</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="22">
+      <c r="E10" s="43">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="19" t="str">
+        <f t="shared" ref="F10:F11" si="1">D25</f>
+        <v>Dermalogica</v>
+      </c>
+      <c r="G10" s="23" t="str">
+        <f>C10&amp;"-"&amp;F10</f>
+        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="21">
         <v>3</v>
       </c>
-      <c r="C11" s="20" t="str">
+      <c r="C11" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Lubridem  Lubriderm Daily Moisture Lotion</v>
-      </c>
-      <c r="D11" s="20" t="str">
+        <v>Masajes</v>
+      </c>
+      <c r="E11" s="43">
+        <v>45000</v>
+      </c>
+      <c r="F11" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>Masajes</v>
-      </c>
-      <c r="E11" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Lubridem  Lubriderm Daily Moisture Lotion Masajes</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="18" t="s">
+        <v>Lubridem</v>
+      </c>
+      <c r="G11" s="23" t="str">
+        <f>C11&amp;"-"&amp;F11</f>
+        <v>Daily Moisture Lotion-Lubridem</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="22">
+      <c r="D15" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21">
         <v>1</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="21" t="str">
+      <c r="C16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="20" t="str">
         <f>C16</f>
         <v>Cuidado corporal</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="31">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="27">
         <v>2</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="21" t="str">
-        <f t="shared" ref="D17:D18" si="3">C17</f>
+      <c r="C17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="20" t="str">
+        <f t="shared" ref="D17:D18" si="2">C17</f>
         <v>Cuidado facial</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="22">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21">
         <v>3</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="21" t="str">
+      <c r="C18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Masajes</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
+        <v>1</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="20" t="str">
+        <f>C24</f>
+        <v>L'Oréal</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="20" t="str">
+        <f t="shared" ref="D25:D26" si="3">C25</f>
+        <v>Dermalogica</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="19">
+        <v>2</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="20" t="str">
         <f t="shared" si="3"/>
-        <v>Masajes</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="22">
-        <v>1</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="24" t="str">
-        <f>'Fabricantes - Muestreo Datos'!D5</f>
-        <v>L'Oréal</v>
-      </c>
-      <c r="E24" s="25" t="str">
-        <f>D24&amp;"  "&amp;C24</f>
-        <v>L'Oréal  Crema de Día Anti-edad</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="22">
-        <v>2</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="24" t="str">
-        <f>'Fabricantes - Muestreo Datos'!D6</f>
-        <v>Dermalogica</v>
-      </c>
-      <c r="E25" s="25" t="str">
-        <f t="shared" ref="E25:E26" si="4">D25&amp;"  "&amp;C25</f>
-        <v>Dermalogica  Dermalogica Daily Microfoliant</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="22">
-        <v>3</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="24" t="str">
-        <f>'Fabricantes - Muestreo Datos'!D7</f>
         <v>Lubridem</v>
-      </c>
-      <c r="E26" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>Lubridem  Lubriderm Daily Moisture Lotion</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B4:E5"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="MaestroMuestreo!A1" display="Volver al Inicio" xr:uid="{B1087FC7-3750-452B-AEAD-6368B97ABFC2}"/>
-    <hyperlink ref="D24" location="Fabricante!C2" display="Fabricante!C2" xr:uid="{A0963741-CBBB-47AD-A7BE-4727C5BD2C10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4476,9 +4427,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.140625" customWidth="1"/>
@@ -4487,342 +4438,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>1</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="20" t="str">
+      <c r="C7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="19" t="str">
         <f>H33</f>
         <v>Sucursal Rionegro-CL 10 43 A 29</v>
       </c>
-      <c r="E7" s="21" t="str">
+      <c r="E7" s="20" t="str">
         <f>C7&amp;"-"&amp;D7</f>
         <v>Inventario A-Sucursal Rionegro-CL 10 43 A 29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>2</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="20" t="str">
+      <c r="C8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="19" t="str">
         <f t="shared" ref="D8:D9" si="0">H34</f>
         <v>Sucursal Marinilla-CL 63 9 36</v>
       </c>
-      <c r="E8" s="21" t="str">
+      <c r="E8" s="20" t="str">
         <f t="shared" ref="E8:E9" si="1">C8&amp;"-"&amp;D8</f>
         <v>Inventario B-Sucursal Marinilla-CL 63 9 36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>3</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="20" t="str">
+      <c r="C9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Sucursal El Poblado-CR 2 5 39</v>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="E9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Inventario C-Sucursal El Poblado-CR 2 5 39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="B14" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>26</v>
+      <c r="C15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>1</v>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="24" t="str">
         <f>C26</f>
-        <v>L'Oréal  Crema de Día Anti-edad Cuidado corporal</v>
-      </c>
-      <c r="D16" s="20">
+        <v>Crema de Día Anti-edad-L'Oréal</v>
+      </c>
+      <c r="D16" s="19">
         <v>10</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="32">
         <v>12000</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="33">
         <v>45369</v>
       </c>
-      <c r="G16" s="47" t="str">
-        <f>C16&amp;"-"&amp;D16</f>
-        <v>L'Oréal  Crema de Día Anti-edad Cuidado corporal-10</v>
+      <c r="G16" s="37" t="str">
+        <f>C16</f>
+        <v>Crema de Día Anti-edad-L'Oréal</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>2</v>
       </c>
-      <c r="C17" s="26" t="str">
+      <c r="C17" s="24" t="str">
         <f t="shared" ref="C17:C18" si="2">C27</f>
-        <v>Dermalogica  Dermalogica Daily Microfoliant Cuidado facial</v>
-      </c>
-      <c r="D17" s="20">
+        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
+      </c>
+      <c r="D17" s="19">
         <v>50</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="32">
         <v>20000</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="33">
         <v>45346</v>
       </c>
-      <c r="G17" s="47" t="str">
-        <f t="shared" ref="G17:G18" si="3">C17&amp;"-"&amp;D17</f>
-        <v>Dermalogica  Dermalogica Daily Microfoliant Cuidado facial-50</v>
+      <c r="G17" s="37" t="str">
+        <f>C17</f>
+        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>3</v>
       </c>
-      <c r="C18" s="26" t="str">
+      <c r="C18" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>Lubridem  Lubriderm Daily Moisture Lotion Masajes</v>
-      </c>
-      <c r="D18" s="20">
+        <v>Daily Moisture Lotion-Lubridem</v>
+      </c>
+      <c r="D18" s="19">
         <v>100</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="32">
         <v>14500</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="33">
         <v>45262</v>
       </c>
-      <c r="G18" s="47" t="str">
-        <f t="shared" si="3"/>
-        <v>Lubridem  Lubriderm Daily Moisture Lotion Masajes-100</v>
+      <c r="G18" s="37" t="str">
+        <f>C18</f>
+        <v>Daily Moisture Lotion-Lubridem</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="32"/>
+      <c r="B24" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="51"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="26" t="str">
-        <f>'Productos - Muestreo Datos'!E9</f>
-        <v>L'Oréal  Crema de Día Anti-edad Cuidado corporal</v>
+      <c r="C26" s="24" t="str">
+        <f>'Productos - Muestreo Datos'!G9</f>
+        <v>Crema de Día Anti-edad-L'Oréal</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>2</v>
       </c>
-      <c r="C27" s="26" t="str">
-        <f>'Productos - Muestreo Datos'!E10</f>
-        <v>Dermalogica  Dermalogica Daily Microfoliant Cuidado facial</v>
+      <c r="C27" s="24" t="str">
+        <f>'Productos - Muestreo Datos'!G10</f>
+        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>3</v>
       </c>
-      <c r="C28" s="26" t="str">
-        <f>'Productos - Muestreo Datos'!E11</f>
-        <v>Lubridem  Lubriderm Daily Moisture Lotion Masajes</v>
+      <c r="C28" s="24" t="str">
+        <f>'Productos - Muestreo Datos'!G11</f>
+        <v>Daily Moisture Lotion-Lubridem</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="40"/>
+      <c r="C29" s="31"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="H32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="I32" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="21">
+        <v>1</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="D33" s="22" t="str">
+        <f>'Sucursales - Muestreo Datos'!F14</f>
+        <v>Rionegro-Antioquia-Colombia</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="F33" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="22">
-        <v>1</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="24">
-        <f>[1]Ciudad!F25</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="20">
+      <c r="G33" s="19">
         <v>54323243</v>
       </c>
-      <c r="H33" s="21" t="str">
+      <c r="H33" s="20" t="str">
         <f>C33&amp;"-"&amp;E33</f>
         <v>Sucursal Rionegro-CL 10 43 A 29</v>
       </c>
-      <c r="I33" s="36" t="str">
+      <c r="I33" s="30" t="str">
         <f>F33&amp;"-"&amp;G33</f>
         <v>SucursalRionegro@gmail.com-54323243</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>2</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="24">
-        <f>[1]Ciudad!F26</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="20">
+      <c r="C34" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="22" t="str">
+        <f>'Sucursales - Muestreo Datos'!F15</f>
+        <v>Marinilla-Santander-Colombia</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="19">
         <v>3214321</v>
       </c>
-      <c r="H34" s="21" t="str">
-        <f t="shared" ref="H34:H35" si="4">C34&amp;"-"&amp;E34</f>
+      <c r="H34" s="20" t="str">
+        <f t="shared" ref="H34:H35" si="3">C34&amp;"-"&amp;E34</f>
         <v>Sucursal Marinilla-CL 63 9 36</v>
       </c>
-      <c r="I34" s="36" t="str">
+      <c r="I34" s="30" t="str">
         <f>F34&amp;"-"&amp;G34</f>
         <v>SucursalMarinilla@gmail.com-3214321</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>2</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="24">
-        <f>[1]Ciudad!F27</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="20">
+      <c r="C35" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="22" t="str">
+        <f>'Sucursales - Muestreo Datos'!F16</f>
+        <v>Medellin-Cundinamarca-Colombia</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="19">
         <v>5632421</v>
       </c>
-      <c r="H35" s="21" t="str">
-        <f t="shared" si="4"/>
+      <c r="H35" s="20" t="str">
+        <f t="shared" si="3"/>
         <v>Sucursal El Poblado-CR 2 5 39</v>
       </c>
-      <c r="I35" s="36" t="str">
+      <c r="I35" s="30" t="str">
         <f>F35&amp;"-"&amp;G35</f>
         <v>SucursalPoblado@gmail.com-5632421</v>
       </c>
@@ -4837,11 +4787,11 @@
   <hyperlinks>
     <hyperlink ref="A1" location="MaestroMuestreo!A1" display="Volver al Inicio" xr:uid="{11BE072A-5552-4E0A-82C5-C4835D75DC4E}"/>
     <hyperlink ref="D33" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{5906612D-0F9F-430E-9101-B661D837E61A}"/>
-    <hyperlink ref="D34:D35" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{4FB04CD0-DC89-4F57-9279-5E099C2A72E7}"/>
     <hyperlink ref="F33" r:id="rId1" xr:uid="{AC8B4300-D11B-462D-B1E1-AAC7D18A3D86}"/>
     <hyperlink ref="F34:F35" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{CAD4D4A1-9670-4640-AF20-DFCD3513AD20}"/>
     <hyperlink ref="F34" r:id="rId3" xr:uid="{F3DDEACA-40F2-4C3D-9D95-9FAA5300A149}"/>
     <hyperlink ref="F35" r:id="rId4" xr:uid="{415D4ADD-3723-4F22-8BBA-9BE2EF290B0E}"/>
+    <hyperlink ref="D34:D35" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{3712440E-B112-4B9A-B05B-80BFB3A451D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
@@ -4850,7 +4800,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C16EB-37C4-464A-BCB1-03F5B6ADBC1C}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4858,418 +4808,489 @@
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>900811919</v>
       </c>
-      <c r="E6" s="20" t="str">
-        <f>D29</f>
+      <c r="E6" s="19" t="str">
+        <f>D33</f>
         <v>NIT</v>
       </c>
-      <c r="F6" s="20" t="str">
-        <f>F24</f>
+      <c r="F6" s="19" t="str">
+        <f>G24</f>
         <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
       </c>
-      <c r="G6" s="26" t="str">
-        <f>E16</f>
-        <v>Jhonatan12353</v>
-      </c>
-      <c r="H6" s="21" t="str">
+      <c r="G6" s="24" t="str">
+        <f>E16&amp;"-"&amp;G19</f>
+        <v>Jhonatan12353-Juan Pablo Rendon Gómez-JPR3214</v>
+      </c>
+      <c r="H6" s="20" t="str">
         <f>D6&amp;"-"&amp;E6&amp;"-"&amp;C6</f>
         <v>900811919-NIT-SpaOnline</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="C7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="19">
         <v>811912382</v>
       </c>
-      <c r="E7" s="20" t="str">
-        <f>D29</f>
+      <c r="E7" s="19" t="str">
+        <f>D33</f>
         <v>NIT</v>
       </c>
-      <c r="F7" s="20" t="str">
-        <f>F24</f>
-        <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
-      </c>
-      <c r="G7" s="26" t="str">
+      <c r="F7" s="19" t="str">
+        <f>G25</f>
+        <v>Nathaly perez Zapata-nathaly801</v>
+      </c>
+      <c r="G7" s="24" t="str">
         <f t="shared" ref="G7:G8" si="0">E17</f>
         <v>Cristian123</v>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="20" t="str">
         <f t="shared" ref="H7:H8" si="1">D7&amp;"-"&amp;E7&amp;"-"&amp;C7</f>
         <v>811912382-NIT-SpaManitas</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>2</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="C8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="19">
         <v>830411223</v>
       </c>
-      <c r="E8" s="20" t="str">
-        <f>D29</f>
+      <c r="E8" s="19" t="str">
+        <f>D33</f>
         <v>NIT</v>
       </c>
-      <c r="F8" s="20" t="str">
-        <f>F24</f>
-        <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
-      </c>
-      <c r="G8" s="26" t="str">
+      <c r="F8" s="19" t="str">
+        <f>G26</f>
+        <v>Camilo Saldarriaga -salda2212</v>
+      </c>
+      <c r="G8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>LuisOs432</v>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>830411223-NIT-SpaOriente</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D16" s="19">
+        <v>1038419180</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="20">
-        <v>1</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="20">
-        <v>1038419180</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="21" t="str">
+      <c r="F16" s="19" t="str">
+        <f>H6</f>
+        <v>900811919-NIT-SpaOnline</v>
+      </c>
+      <c r="G16" s="23" t="str">
         <f>C16&amp;"-"&amp;E16</f>
         <v>Jhonatan Arley Gómez -Jhonatan12353</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="20">
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
         <v>2</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1038419181</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="19" t="str">
+        <f t="shared" ref="F17:F18" si="2">H7</f>
+        <v>811912382-NIT-SpaManitas</v>
+      </c>
+      <c r="G17" s="23" t="str">
+        <f t="shared" ref="G17:G19" si="3">C17&amp;"-"&amp;E17</f>
+        <v>Cristian David Ospina Ospina-Cristian123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>3</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1038419182</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="20">
-        <v>1038419181</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="F18" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>830411223-NIT-SpaOriente</v>
+      </c>
+      <c r="G18" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Luis Ospina-LuisOs432</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="21" t="str">
-        <f t="shared" ref="F17:F19" si="2">C17&amp;"-"&amp;E17</f>
-        <v>Cristian David Ospina Ospina-Cristian123</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="20">
-        <v>3</v>
-      </c>
-      <c r="C18" s="20" t="s">
+      <c r="D19" s="19">
+        <v>1038419183</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="20">
-        <v>1038419182</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="F19" s="19" t="str">
+        <f>H6</f>
+        <v>900811919-NIT-SpaOnline</v>
+      </c>
+      <c r="G19" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Juan Pablo Rendon Gómez-JPR3214</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
+        <v>1</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Luis Ospina-LuisOs432</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
-        <v>4</v>
-      </c>
-      <c r="C19" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="20">
-        <v>1038419183</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Juan Pablo Rendon Gómez-JPR3214</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="54"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="54"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="20">
-        <v>1</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>1036416237</v>
       </c>
-      <c r="F24" s="21" t="str">
+      <c r="F24" s="19" t="str">
+        <f>H6</f>
+        <v>900811919-NIT-SpaOnline</v>
+      </c>
+      <c r="G24" s="23" t="str">
         <f>C24&amp;"-"&amp;D24</f>
         <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1037310292</v>
+      </c>
+      <c r="F25" s="19" t="str">
+        <f>H7</f>
+        <v>811912382-NIT-SpaManitas</v>
+      </c>
+      <c r="G25" s="23" t="str">
+        <f>C25&amp;"-"&amp;D25</f>
+        <v>Nathaly perez Zapata-nathaly801</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="19">
+        <v>3</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="19">
+        <v>10384182321</v>
+      </c>
+      <c r="F26" s="19" t="str">
+        <f>H8</f>
+        <v>830411223-NIT-SpaOriente</v>
+      </c>
+      <c r="G26" s="23" t="str">
+        <f>C26&amp;"-"&amp;D26</f>
+        <v>Camilo Saldarriaga -salda2212</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="20">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
         <v>1</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C32" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="20" t="str">
+        <f>C32</f>
+        <v>RUT</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="19">
+        <v>2</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="20" t="str">
+        <f t="shared" ref="D33:D39" si="4">C33</f>
+        <v>NIT</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="19">
+        <v>3</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v>RNE</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="19">
+        <v>4</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="21" t="str">
-        <f>C28</f>
-        <v>RUT</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="20">
-        <v>2</v>
-      </c>
-      <c r="C29" s="20" t="s">
+      <c r="D35" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v>RUC</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="19">
+        <v>5</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="21" t="str">
-        <f t="shared" ref="D29:D35" si="3">C29</f>
-        <v>NIT</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="20">
-        <v>3</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="D36" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v>NIF</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
+        <v>6</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>RNE</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="20">
-        <v>4</v>
-      </c>
-      <c r="C31" s="20" t="s">
+      <c r="D37" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v>CC</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="19">
+        <v>7</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>RUC</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="20">
-        <v>5</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="D38" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v>Pasaporte</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="19">
+        <v>8</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>NIF</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="20">
-        <v>6</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>CC</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="20">
-        <v>7</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Pasaporte</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="20">
-        <v>8</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="21" t="str">
-        <f t="shared" si="3"/>
+      <c r="D39" s="20" t="str">
+        <f t="shared" si="4"/>
         <v>TI</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B22:G22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="MaestroMuestreo!A1" display="Volver al Inicio" xr:uid="{C2BA9F55-E0F2-43A7-9A8D-8FADD2B50C84}"/>
@@ -5281,10 +5302,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4688E9-71AF-4267-90DE-CAB04CF04B9F}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J9"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5296,511 +5317,516 @@
     <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="10" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="K6" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="20" t="str">
+      <c r="D7" s="19" t="str">
         <f>H35</f>
         <v>900811919-NIT-SpaOnline</v>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="22" t="str">
         <f>F14</f>
         <v>Rionegro-Antioquia-Colombia</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="20">
+      <c r="G7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="19">
         <v>54323243</v>
       </c>
-      <c r="I7" s="21" t="str">
-        <f>E7&amp;"-"&amp;F7</f>
+      <c r="J7" s="20" t="str">
+        <f>F7&amp;"-"&amp;G7</f>
         <v>Rionegro-Antioquia-Colombia-CL 10 43 A 29</v>
       </c>
-      <c r="J7" s="36" t="str">
-        <f>G7&amp;"-"&amp;H7</f>
+      <c r="K7" s="30" t="str">
+        <f>H7&amp;"-"&amp;I7</f>
         <v>SucursalRionegro@gmail.com-54323243</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
         <v>2</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="20" t="str">
+      <c r="C8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="19" t="str">
         <f t="shared" ref="D8:D9" si="0">H36</f>
         <v>811912382-NIT-SpaManitas</v>
       </c>
-      <c r="E8" s="24" t="str">
-        <f t="shared" ref="E8:E9" si="1">F15</f>
+      <c r="E8" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="22" t="str">
+        <f t="shared" ref="F8:F9" si="1">F15</f>
         <v>Marinilla-Santander-Colombia</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="20">
+      <c r="G8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="19">
         <v>3214321</v>
       </c>
-      <c r="I8" s="21" t="str">
-        <f t="shared" ref="I8:I9" si="2">E8&amp;"-"&amp;F8</f>
+      <c r="J8" s="20" t="str">
+        <f t="shared" ref="J8:J9" si="2">F8&amp;"-"&amp;G8</f>
         <v>Marinilla-Santander-Colombia-CL 63 9 36</v>
       </c>
-      <c r="J8" s="36" t="str">
-        <f>G8&amp;"-"&amp;H8</f>
+      <c r="K8" s="30" t="str">
+        <f>H8&amp;"-"&amp;I8</f>
         <v>SucursalMarinilla@gmail.com-3214321</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="20" t="str">
+      <c r="C9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>830411223-NIT-SpaOriente</v>
       </c>
-      <c r="E9" s="24" t="str">
+      <c r="E9" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Medellin-Cundinamarca-Colombia</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="20">
+      <c r="G9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="19">
         <v>5632421</v>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="J9" s="20" t="str">
         <f t="shared" si="2"/>
         <v>Medellin-Cundinamarca-Colombia-CR 2 5 39</v>
       </c>
-      <c r="J9" s="36" t="str">
-        <f>G9&amp;"-"&amp;H9</f>
+      <c r="K9" s="30" t="str">
+        <f>H9&amp;"-"&amp;I9</f>
         <v>SucursalPoblado@gmail.com-5632421</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="D13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
         <v>1</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="C14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="19">
         <v>54020</v>
       </c>
-      <c r="E14" s="24" t="str">
+      <c r="E14" s="22" t="str">
         <f>E21</f>
         <v>Antioquia-Colombia</v>
       </c>
-      <c r="F14" s="21" t="str">
+      <c r="F14" s="20" t="str">
         <f>C14&amp;"-"&amp;E14</f>
         <v>Rionegro-Antioquia-Colombia</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="39">
         <f>D14</f>
         <v>54020</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="20">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
         <v>2</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="C15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="19">
         <v>55023</v>
       </c>
-      <c r="E15" s="24" t="str">
+      <c r="E15" s="22" t="str">
         <f t="shared" ref="E15:E16" si="3">E22</f>
         <v>Santander-Colombia</v>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="20" t="str">
         <f>C15&amp;"-"&amp;E15</f>
         <v>Marinilla-Santander-Colombia</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="39">
         <f>D15</f>
         <v>55023</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="20">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
         <v>3</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="C16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="19">
         <v>33042</v>
       </c>
-      <c r="E16" s="24" t="str">
+      <c r="E16" s="22" t="str">
         <f t="shared" si="3"/>
         <v>Cundinamarca-Colombia</v>
       </c>
-      <c r="F16" s="21" t="str">
+      <c r="F16" s="20" t="str">
         <f>C16&amp;"-"&amp;E16</f>
         <v>Medellin-Cundinamarca-Colombia</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="39">
         <f>D16</f>
         <v>33042</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="51"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="51"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>1</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="24" t="str">
+      <c r="C21" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="22" t="str">
         <f>D27</f>
         <v>Colombia</v>
       </c>
-      <c r="E21" s="21" t="str">
+      <c r="E21" s="20" t="str">
         <f>C21&amp;"-"&amp;D21</f>
         <v>Antioquia-Colombia</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>2</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="24" t="str">
+      <c r="C22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="22" t="str">
         <f>D27</f>
         <v>Colombia</v>
       </c>
-      <c r="E22" s="21" t="str">
+      <c r="E22" s="20" t="str">
         <f>C22&amp;"-"&amp;D22</f>
         <v>Santander-Colombia</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>3</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="24" t="str">
+      <c r="C23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="22" t="str">
         <f>D27</f>
         <v>Colombia</v>
       </c>
-      <c r="E23" s="21" t="str">
+      <c r="E23" s="20" t="str">
         <f>C23&amp;"-"&amp;D23</f>
         <v>Cundinamarca-Colombia</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>1</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="21" t="str">
+      <c r="C27" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="20" t="str">
         <f>C27</f>
         <v>Colombia</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>2</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="21" t="str">
+      <c r="C28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="20" t="str">
         <f>C28</f>
         <v>Usa</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>3</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="21" t="str">
+      <c r="C29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="20" t="str">
         <f>C29</f>
         <v>España</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="56"/>
+      <c r="D31" s="41"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="G34" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="20">
+      <c r="B35" s="19">
         <v>1</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>900811919</v>
       </c>
-      <c r="E35" s="20" t="str">
+      <c r="E35" s="19" t="str">
         <f>'Institucio - Muestreo Datos'!E6</f>
         <v>NIT</v>
       </c>
-      <c r="F35" s="20" t="str">
+      <c r="F35" s="19" t="str">
         <f>'Institucio - Muestreo Datos'!F6</f>
         <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
       </c>
-      <c r="G35" s="26" t="str">
+      <c r="G35" s="24" t="str">
         <f>'Institucio - Muestreo Datos'!G6</f>
-        <v>Jhonatan12353</v>
-      </c>
-      <c r="H35" s="21" t="str">
+        <v>Jhonatan12353-Juan Pablo Rendon Gómez-JPR3214</v>
+      </c>
+      <c r="H35" s="20" t="str">
         <f>D35&amp;"-"&amp;E35&amp;"-"&amp;C35</f>
         <v>900811919-NIT-SpaOnline</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="20">
+      <c r="B36" s="19">
         <v>2</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="20">
+      <c r="C36" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="19">
         <v>811912382</v>
       </c>
-      <c r="E36" s="20" t="str">
+      <c r="E36" s="19" t="str">
         <f>'Institucio - Muestreo Datos'!E7</f>
         <v>NIT</v>
       </c>
-      <c r="F36" s="20" t="str">
+      <c r="F36" s="19" t="str">
         <f>'Institucio - Muestreo Datos'!F7</f>
-        <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
-      </c>
-      <c r="G36" s="26" t="str">
+        <v>Nathaly perez Zapata-nathaly801</v>
+      </c>
+      <c r="G36" s="24" t="str">
         <f>'Institucio - Muestreo Datos'!G7</f>
         <v>Cristian123</v>
       </c>
-      <c r="H36" s="21" t="str">
+      <c r="H36" s="20" t="str">
         <f t="shared" ref="H36:H37" si="4">D36&amp;"-"&amp;E36&amp;"-"&amp;C36</f>
         <v>811912382-NIT-SpaManitas</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="20">
+      <c r="B37" s="19">
         <v>2</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="20">
+      <c r="C37" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="19">
         <v>830411223</v>
       </c>
-      <c r="E37" s="20" t="str">
+      <c r="E37" s="19" t="str">
         <f>'Institucio - Muestreo Datos'!E8</f>
         <v>NIT</v>
       </c>
-      <c r="F37" s="20" t="str">
+      <c r="F37" s="19" t="str">
         <f>'Institucio - Muestreo Datos'!F8</f>
-        <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
-      </c>
-      <c r="G37" s="26" t="str">
+        <v>Camilo Saldarriaga -salda2212</v>
+      </c>
+      <c r="G37" s="24" t="str">
         <f>'Institucio - Muestreo Datos'!G8</f>
         <v>LuisOs432</v>
       </c>
-      <c r="H37" s="21" t="str">
+      <c r="H37" s="20" t="str">
         <f t="shared" si="4"/>
         <v>830411223-NIT-SpaOriente</v>
       </c>
@@ -5820,12 +5846,12 @@
     <hyperlink ref="D22" location="Pais!B2" display="Pais!B2" xr:uid="{030C569C-6003-4B57-B837-549EB589768E}"/>
     <hyperlink ref="D23" location="Pais!B2" display="Pais!B2" xr:uid="{F98CB8E3-D657-4EAE-A368-1EEC2B6686DD}"/>
     <hyperlink ref="E15:E16" location="Departamento!D2" display="Departamento!D2" xr:uid="{04804EDF-5780-4480-A04B-54A34151ACBF}"/>
-    <hyperlink ref="E7" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{913951AC-5C19-4318-836C-46CB8CB7CAF7}"/>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{7D88844A-83E9-4472-A992-E5461688F581}"/>
-    <hyperlink ref="G8:G9" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{6894BAE1-60F9-485E-B1CA-AE8E559AE940}"/>
-    <hyperlink ref="G8" r:id="rId3" xr:uid="{F553FBDD-45A7-4001-A35D-7C3CCCF241CB}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{A21F9F2C-5F32-4310-9EB3-0B9E4E4B8F02}"/>
-    <hyperlink ref="E8:E9" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{EAC8D694-8903-491F-B7DF-C712CDD49710}"/>
+    <hyperlink ref="F7" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{913951AC-5C19-4318-836C-46CB8CB7CAF7}"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{7D88844A-83E9-4472-A992-E5461688F581}"/>
+    <hyperlink ref="H8:H9" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{6894BAE1-60F9-485E-B1CA-AE8E559AE940}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{F553FBDD-45A7-4001-A35D-7C3CCCF241CB}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{A21F9F2C-5F32-4310-9EB3-0B9E4E4B8F02}"/>
+    <hyperlink ref="F8:F9" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{EAC8D694-8903-491F-B7DF-C712CDD49710}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
@@ -5848,115 +5874,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="B6" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="H7" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" s="19" t="str">
         <f>'InformacionBase - Muestreo Dato'!C12</f>
         <v>CC</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>1234567890</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>3116987523</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="21" t="str">
+      <c r="G8" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="20" t="str">
         <f>+C8&amp;"-"&amp;E8</f>
         <v>Martina Corrales-1234567890</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="20" t="str">
+      <c r="C9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="19" t="str">
         <f>'InformacionBase - Muestreo Dato'!C13</f>
         <v>Pasaporte</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>987654321</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>3639874520</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="21" t="str">
+      <c r="G9" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="20" t="str">
         <f t="shared" ref="H9:H10" si="0">+C9&amp;"-"&amp;E9</f>
         <v>Ramiro Ramirez-987654321</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>3</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="20" t="str">
+      <c r="C10" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="19" t="str">
         <f>'InformacionBase - Muestreo Dato'!C14</f>
         <v>TI</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>39789321</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>3793175677</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="21" t="str">
+      <c r="G10" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Lucrecia Gomez-39789321</v>
       </c>
@@ -5966,114 +5992,114 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="21" t="str">
+      <c r="C19" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="20" t="str">
         <f>C19</f>
         <v>RUT</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>2</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="21" t="str">
+      <c r="C20" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="20" t="str">
         <f t="shared" ref="D20:D26" si="1">C20</f>
         <v>NIT</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>3</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="21" t="str">
+      <c r="C21" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="20" t="str">
         <f t="shared" si="1"/>
         <v>RNE</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>4</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="21" t="str">
+      <c r="C22" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="20" t="str">
         <f t="shared" si="1"/>
         <v>RUC</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>5</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="21" t="str">
+      <c r="C23" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="20" t="str">
         <f t="shared" si="1"/>
         <v>NIF</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>6</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="21" t="str">
+      <c r="C24" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="20" t="str">
         <f t="shared" si="1"/>
         <v>CC</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>7</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="21" t="str">
+      <c r="C25" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Pasaporte</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>8</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="21" t="str">
+      <c r="C26" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="20" t="str">
         <f t="shared" si="1"/>
         <v>TI</v>
       </c>
@@ -6096,9 +6122,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC07E9D3-5F73-4E3F-BC8B-C0E18DC9C061}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6107,654 +6135,726 @@
     <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
     <col min="9" max="9" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="B3" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="20">
+      <c r="C4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="20" t="str">
+      <c r="C5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="19" t="str">
         <f>E30</f>
         <v>3:00pm-16/03/2024</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="25" t="str">
+      <c r="E5" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="23" t="str">
         <f>D5&amp;" "&amp;E5&amp;" "&amp;C5</f>
         <v>3:00pm-16/03/2024 Pedicura Spa-100000 Martina Corrales-1234567890</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="20" t="str">
+      <c r="C6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="19" t="str">
         <f t="shared" ref="D6:D7" si="0">E31</f>
         <v>10:00am-28/04/2024</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="25" t="str">
-        <f t="shared" ref="G6:G7" si="1">D6&amp;" "&amp;E6&amp;" "&amp;C6</f>
+      <c r="E6" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="23" t="str">
+        <f>D6&amp;" "&amp;E6&amp;" "&amp;C6</f>
         <v>10:00am-28/04/2024 Tratamiento Facial Antiedad-120000 Ramiro Ramirez-987654321</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="20" t="str">
+      <c r="C7" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>12:30pm-05/05/2024</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="E7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="23" t="str">
+        <f t="shared" ref="H7" si="1">D7&amp;" "&amp;E7&amp;" "&amp;C7</f>
         <v>12:30pm-05/05/2024 Masaje Relajante-100000 Lucrecia Gomez-39789321</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="B15" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="20">
-        <v>1</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>1234567890</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="21" t="str">
+      <c r="E17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="20" t="str">
         <f>+C17</f>
         <v>Martina Corrales</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="20">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
         <v>2</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="C18" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="19">
         <v>987654321</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="21" t="str">
+      <c r="E18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="20" t="str">
         <f>+C18</f>
         <v>Ramiro Ramirez</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
         <v>3</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="C19" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="19">
         <v>39789321</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="21" t="str">
+      <c r="E19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="20" t="str">
         <f>+C19</f>
         <v>Lucrecia Gomez</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="20">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
         <v>1</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="21" t="str">
+      <c r="C23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="20" t="str">
         <f>+C23</f>
         <v>Pedicura Spa-100000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="20">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
         <v>2</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="21" t="str">
+      <c r="C24" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="20" t="str">
         <f t="shared" ref="D24:D25" si="2">+C24</f>
         <v>Tratamiento Facial Antiedad-120000</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="20">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
         <v>3</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="21" t="str">
+      <c r="C25" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="20" t="str">
         <f t="shared" si="2"/>
         <v>Masaje Relajante-100000</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="52"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="54"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="75"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="19">
+        <v>1</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="20">
-        <v>1</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="21" t="str">
+      <c r="D30" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="20" t="str">
         <f>D30&amp;"-"&amp;C30</f>
         <v>3:00pm-16/03/2024</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="20">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
         <v>2</v>
       </c>
-      <c r="C31" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="21" t="str">
+      <c r="C31" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="20" t="str">
         <f t="shared" ref="E31:E32" si="3">D31&amp;"-"&amp;C31</f>
         <v>10:00am-28/04/2024</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="20">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
         <v>3</v>
       </c>
-      <c r="C32" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="21" t="str">
+      <c r="C32" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="20" t="str">
         <f t="shared" si="3"/>
         <v>12:30pm-05/05/2024</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="54"/>
-    </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="54"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
+      <c r="B35" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="20">
-        <v>1</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="24">
-        <f>[2]TipoServicio!D30</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="64">
+      <c r="D37" s="22" t="str">
+        <f>'Servicios - Muestreo Datos'!D13</f>
+        <v>Pedicura y Manicura</v>
+      </c>
+      <c r="E37" s="43">
         <v>100000</v>
       </c>
-      <c r="F37" s="21" t="str">
+      <c r="F37" s="20" t="str">
         <f>C37&amp;"-"&amp;E37</f>
         <v>Pedicura Spa-100000</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>2</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="24">
-        <f>[2]TipoServicio!D31</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="64">
+      <c r="C38" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="22" t="str">
+        <f>'Servicios - Muestreo Datos'!D14</f>
+        <v>Tratamiento Facial</v>
+      </c>
+      <c r="E38" s="43">
         <v>120000</v>
       </c>
-      <c r="F38" s="21" t="str">
+      <c r="F38" s="20" t="str">
         <f>C38&amp;"-"&amp;E38</f>
         <v>Tratamiento Facial Antiedad-120000</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>2</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="24">
-        <f>[2]TipoServicio!D32</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="64">
+      <c r="C39" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="22" t="str">
+        <f>'Servicios - Muestreo Datos'!D15</f>
+        <v>Masaje</v>
+      </c>
+      <c r="E39" s="43">
         <v>100000</v>
       </c>
-      <c r="F39" s="21" t="str">
+      <c r="F39" s="20" t="str">
         <f>C39&amp;"-"&amp;E39</f>
         <v>Masaje Relajante-100000</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
+      <c r="B42" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="G43" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="19">
+        <v>1</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="D44" s="19">
+        <v>1234567890</v>
+      </c>
+      <c r="E44" s="19">
+        <v>3116987523</v>
+      </c>
+      <c r="F44" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F43" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="20">
-        <v>1</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="20">
-        <v>1234567890</v>
-      </c>
-      <c r="E44" s="20">
-        <v>3116987523</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="21" t="str">
+      <c r="G44" s="20" t="str">
         <f>+C44&amp;"-"&amp;D44</f>
         <v>Martina Corrales-1234567890</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>2</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="20">
+      <c r="C45" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="19">
         <v>987654321</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="19">
         <v>3639874520</v>
       </c>
-      <c r="F45" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="21" t="str">
+      <c r="F45" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" s="20" t="str">
         <f t="shared" ref="G45:G46" si="4">+C45&amp;"-"&amp;D45</f>
         <v>Ramiro Ramirez-987654321</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="20">
+      <c r="B46" s="19">
         <v>3</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="20">
+      <c r="C46" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="19">
         <v>39789321</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>3793175677</v>
       </c>
-      <c r="F46" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="G46" s="21" t="str">
+      <c r="F46" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Lucrecia Gomez-39789321</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
+      <c r="B49" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="18" t="s">
+      <c r="D50" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="I50" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="J50" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="19">
+        <v>1</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J50" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="20">
-        <v>1</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="20" t="str">
+      <c r="D51" s="19" t="str">
         <f>'Sucursales - Muestreo Datos'!D7</f>
         <v>900811919-NIT-SpaOnline</v>
       </c>
-      <c r="E51" s="24" t="str">
-        <f>'Sucursales - Muestreo Datos'!E7</f>
+      <c r="E51" s="22" t="str">
+        <f>'Sucursales - Muestreo Datos'!F7</f>
         <v>Rionegro-Antioquia-Colombia</v>
       </c>
-      <c r="F51" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" s="20">
+      <c r="F51" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="19">
         <v>54323243</v>
       </c>
-      <c r="I51" s="21" t="str">
+      <c r="I51" s="20" t="str">
         <f>E51&amp;"-"&amp;F51</f>
         <v>Rionegro-Antioquia-Colombia-CL 10 43 A 29</v>
       </c>
-      <c r="J51" s="36" t="str">
+      <c r="J51" s="30" t="str">
         <f>G51&amp;"-"&amp;H51</f>
         <v>SucursalRionegro@gmail.com-54323243</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="20">
+      <c r="B52" s="19">
         <v>2</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="20" t="str">
+      <c r="C52" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="19" t="str">
         <f>'Sucursales - Muestreo Datos'!D8</f>
         <v>811912382-NIT-SpaManitas</v>
       </c>
-      <c r="E52" s="24" t="str">
-        <f>'Sucursales - Muestreo Datos'!E8</f>
+      <c r="E52" s="22" t="str">
+        <f>'Sucursales - Muestreo Datos'!F8</f>
         <v>Marinilla-Santander-Colombia</v>
       </c>
-      <c r="F52" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="20">
+      <c r="F52" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="19">
         <v>3214321</v>
       </c>
-      <c r="I52" s="21" t="str">
+      <c r="I52" s="20" t="str">
         <f t="shared" ref="I52:I53" si="5">E52&amp;"-"&amp;F52</f>
         <v>Marinilla-Santander-Colombia-CL 63 9 36</v>
       </c>
-      <c r="J52" s="36" t="str">
+      <c r="J52" s="30" t="str">
         <f>G52&amp;"-"&amp;H52</f>
         <v>SucursalMarinilla@gmail.com-3214321</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="20">
+      <c r="B53" s="19">
         <v>2</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="20" t="str">
+      <c r="C53" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="19" t="str">
         <f>'Sucursales - Muestreo Datos'!D9</f>
         <v>830411223-NIT-SpaOriente</v>
       </c>
-      <c r="E53" s="24" t="str">
-        <f>'Sucursales - Muestreo Datos'!E9</f>
+      <c r="E53" s="22" t="str">
+        <f>'Sucursales - Muestreo Datos'!F9</f>
         <v>Medellin-Cundinamarca-Colombia</v>
       </c>
-      <c r="F53" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H53" s="20">
+      <c r="F53" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="19">
         <v>5632421</v>
       </c>
-      <c r="I53" s="21" t="str">
+      <c r="I53" s="20" t="str">
         <f t="shared" si="5"/>
         <v>Medellin-Cundinamarca-Colombia-CR 2 5 39</v>
       </c>
-      <c r="J53" s="36" t="str">
+      <c r="J53" s="30" t="str">
         <f>G53&amp;"-"&amp;H53</f>
         <v>SucursalPoblado@gmail.com-5632421</v>
       </c>
     </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="19">
+        <v>1</v>
+      </c>
+      <c r="C58" s="19" t="str">
+        <f>'Notificaciones - Muestreo Datos'!D6</f>
+        <v>1 Oferta de madres</v>
+      </c>
+      <c r="D58" s="20" t="str">
+        <f>B58&amp;" "&amp;C58</f>
+        <v>1 1 Oferta de madres</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="19">
+        <v>2</v>
+      </c>
+      <c r="C59" s="19" t="str">
+        <f>'Notificaciones - Muestreo Datos'!D7</f>
+        <v xml:space="preserve">2 Oferta de San Valentin </v>
+      </c>
+      <c r="D59" s="20" t="str">
+        <f>B59&amp;" "&amp;C59</f>
+        <v xml:space="preserve">2 2 Oferta de San Valentin </v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="19">
+        <v>3</v>
+      </c>
+      <c r="C60" s="19" t="str">
+        <f>'Notificaciones - Muestreo Datos'!D8</f>
+        <v>3 Reserva -1</v>
+      </c>
+      <c r="D60" s="20" t="str">
+        <f t="shared" ref="D60:D61" si="6">B60&amp;" "&amp;C60</f>
+        <v>3 3 Reserva -1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="19">
+        <v>4</v>
+      </c>
+      <c r="C61" s="19" t="str">
+        <f>'Notificaciones - Muestreo Datos'!D9</f>
+        <v>4 Factura - 2</v>
+      </c>
+      <c r="D61" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>4 4 Factura - 2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B21:D21"/>
@@ -6775,10 +6875,9 @@
     <hyperlink ref="G53" r:id="rId7" xr:uid="{2A727853-2179-48D4-90B1-4DA0172D9BE3}"/>
     <hyperlink ref="E52:E53" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{2A55455E-CE62-4D9E-BADC-74AF1530AD82}"/>
     <hyperlink ref="D37" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{D1C3C087-C08A-4648-B640-15B6D141CDEB}"/>
-    <hyperlink ref="D38:D39" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{1ED1807B-3079-4B8F-99B7-3B5000F12572}"/>
+    <hyperlink ref="D38:D39" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{E1D05285-C56D-4F7D-943B-8F22051B2B8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6797,120 +6896,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>1</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="21" t="str">
+      <c r="C7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="20" t="str">
         <f>C7</f>
         <v>RUT</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>2</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="21" t="str">
+      <c r="C8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="20" t="str">
         <f t="shared" ref="D8:D14" si="0">C8</f>
         <v>NIT</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>3</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="21" t="str">
+      <c r="C9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>RNE</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>4</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="21" t="str">
+      <c r="C10" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>RUC</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>5</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="21" t="str">
+      <c r="C11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>NIF</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>6</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="21" t="str">
+      <c r="C12" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>CC</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>7</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="21" t="str">
+      <c r="C13" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Pasaporte</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>8</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="21" t="str">
+      <c r="C14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>TI</v>
       </c>

--- a/SpaOnline/ModeloDominio/Maestro Muestreo de Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Maestro Muestreo de Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="934" documentId="8_{2DE1B22A-FFC5-4559-A1FB-1A8C76F63835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFD1F89A-4984-4EFA-BFBF-EA7D8FA7C833}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4581D9-8DBB-4A71-AE43-B9412BBBF4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="7" xr2:uid="{E97E5C00-5A89-4DD9-BF1F-FD5D66024408}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{E97E5C00-5A89-4DD9-BF1F-FD5D66024408}"/>
   </bookViews>
   <sheets>
     <sheet name="MaestroMuestreo" sheetId="1" r:id="rId1"/>
@@ -524,9 +524,6 @@
     <t>Notificacion de</t>
   </si>
   <si>
-    <t>Pedicura Spa-100000 - Tratamiento Facial Antiedad-120000</t>
-  </si>
-  <si>
     <t>Factura</t>
   </si>
   <si>
@@ -582,6 +579,9 @@
   </si>
   <si>
     <t>8:00 am - 18:00</t>
+  </si>
+  <si>
+    <t>Pedicura Spa-100000-Tratamiento Facial Antiedad-120000-Masaje Relajante-100000</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -939,10 +939,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1013,7 +1013,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,6 +1033,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1042,6 +1062,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,33 +1088,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -3138,7 +3134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B90F74-D41C-4CC6-AFD5-8A0859489EFF}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3158,44 +3156,44 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="B2" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="73" t="s">
+      <c r="F3" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="72" t="s">
-        <v>163</v>
+      <c r="H3" s="51" t="s">
+        <v>162</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -3203,14 +3201,14 @@
         <v>115</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E4" s="24" t="str">
         <f>G26 &amp;"  "&amp;G27</f>
         <v>Crema de Día Anti-edad-L'Oréal  Dermalogica Daily Microfoliant-Dermalogica</v>
       </c>
       <c r="F4" s="46">
-        <v>220000</v>
+        <v>320000</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>110</v>
@@ -3259,7 +3257,7 @@
         <v>128</v>
       </c>
       <c r="E6" s="24" t="str">
-        <f t="shared" ref="E5:E6" si="0">G28</f>
+        <f t="shared" ref="E6" si="0">G28</f>
         <v>Daily Moisture Lotion-Lubridem</v>
       </c>
       <c r="F6" s="46">
@@ -3277,11 +3275,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
@@ -3299,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20" t="str">
         <f>C13</f>
@@ -3311,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20" t="str">
         <f t="shared" ref="D14:D15" si="1">C14</f>
@@ -3324,7 +3322,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="20" t="str">
         <f t="shared" si="1"/>
@@ -3332,14 +3330,14 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
@@ -3383,7 +3381,7 @@
         <v>3:00pm-16/03/2024 Pedicura Spa-100000 Martina Corrales-1234567890</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="19">
         <v>2</v>
       </c>
@@ -3405,7 +3403,7 @@
         <v>10:00am-28/04/2024 Tratamiento Facial Antiedad-120000 Ramiro Ramirez-987654321</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="19">
         <v>3</v>
       </c>
@@ -3428,14 +3426,14 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="35" t="s">
@@ -3542,7 +3540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480D42DE-BE10-4854-BA9A-99F4B4B7DA5B}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3559,13 +3557,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
@@ -3578,7 +3576,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>17</v>
@@ -3642,11 +3640,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3697,15 +3695,15 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
@@ -3843,11 +3841,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
@@ -3865,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" s="20" t="str">
         <f>B6&amp;" "&amp;C6</f>
@@ -3877,7 +3875,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="20" t="str">
         <f>B7&amp;" "&amp;C7</f>
@@ -3889,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="20" t="str">
         <f t="shared" ref="D8:D9" si="0">B8&amp;" "&amp;C8</f>
@@ -3901,7 +3899,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3943,18 +3941,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>17</v>
@@ -3965,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="20" t="str">
         <f>C5</f>
@@ -3977,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="20" t="str">
         <f t="shared" ref="D6:D7" si="0">C6</f>
@@ -3989,7 +3987,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4027,11 +4025,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
@@ -4132,7 +4130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A9BC30-84DE-4F96-B9D6-9CF0DA2E4F6C}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4158,45 +4158,45 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="47" t="s">
         <v>139</v>
       </c>
       <c r="F8" s="38" t="s">
@@ -4260,7 +4260,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="19" t="str">
         <f t="shared" si="0"/>
@@ -4286,11 +4286,11 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
@@ -4350,11 +4350,11 @@
       <c r="A20" s="25"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
@@ -4443,12 +4443,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
@@ -4513,14 +4513,14 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
@@ -4542,7 +4542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="21">
         <v>1</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>Dermalogica Daily Microfoliant-Dermalogica</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="21">
         <v>3</v>
       </c>
@@ -4609,10 +4609,10 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="63"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="35" t="s">
@@ -4622,7 +4622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>1</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>Dermalogica Daily Microfoliant-Dermalogica</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>3</v>
       </c>
@@ -4653,16 +4653,16 @@
       <c r="C29" s="31"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="35" t="s">
@@ -4822,15 +4822,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
@@ -4855,7 +4855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
         <v>1</v>
       </c>
@@ -4943,14 +4943,14 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
@@ -5061,14 +5061,14 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
@@ -5084,7 +5084,7 @@
         <v>71</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="79" t="s">
+      <c r="G23" s="54" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5116,10 +5116,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>167</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>168</v>
       </c>
       <c r="E25" s="19">
         <v>1037310292</v>
@@ -5137,11 +5137,11 @@
       <c r="B26" s="19">
         <v>3</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="D26" s="78" t="s">
-        <v>170</v>
       </c>
       <c r="E26" s="19">
         <v>10384182321</v>
@@ -5155,28 +5155,12 @@
         <v>Camilo Saldarriaga -salda2212</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
-    </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
@@ -5326,17 +5310,17 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
@@ -5348,8 +5332,8 @@
       <c r="D6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="69" t="s">
-        <v>176</v>
+      <c r="E6" s="48" t="s">
+        <v>175</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>37</v>
@@ -5382,7 +5366,7 @@
         <v>900811919-NIT-SpaOnline</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="22" t="str">
         <f>F14</f>
@@ -5418,7 +5402,7 @@
         <v>811912382-NIT-SpaManitas</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="22" t="str">
         <f t="shared" ref="F8:F9" si="1">F15</f>
@@ -5454,7 +5438,7 @@
         <v>830411223-NIT-SpaOriente</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="22" t="str">
         <f t="shared" si="1"/>
@@ -5482,14 +5466,14 @@
       <c r="E10" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
@@ -5587,12 +5571,12 @@
       <c r="E18" s="40"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
@@ -5657,11 +5641,11 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
@@ -5717,15 +5701,15 @@
       <c r="D31" s="41"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
@@ -5750,7 +5734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="19">
         <v>1</v>
       </c>
@@ -5879,15 +5863,15 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
@@ -5991,11 +5975,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
@@ -6124,8 +6108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC07E9D3-5F73-4E3F-BC8B-C0E18DC9C061}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6147,14 +6131,14 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
@@ -6172,14 +6156,14 @@
       <c r="F4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="55" t="s">
         <v>109</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
         <v>1</v>
       </c>
@@ -6191,17 +6175,17 @@
         <v>3:00pm-16/03/2024</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="19" t="s">
         <v>110</v>
       </c>
       <c r="H5" s="23" t="str">
         <f>D5&amp;" "&amp;E5&amp;" "&amp;C5</f>
-        <v>3:00pm-16/03/2024 Pedicura Spa-100000 Martina Corrales-1234567890</v>
+        <v>3:00pm-16/03/2024 Pedicura Spa-100000-Tratamiento Facial Antiedad-120000-Masaje Relajante-100000 Martina Corrales-1234567890</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -6221,7 +6205,7 @@
       <c r="F6" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="19" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="23" t="str">
@@ -6247,7 +6231,7 @@
       <c r="F7" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="19" t="s">
         <v>110</v>
       </c>
       <c r="H7" s="23" t="str">
@@ -6256,13 +6240,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
@@ -6339,11 +6323,11 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
@@ -6392,16 +6376,13 @@
         <v>Masaje Relajante-100000</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="75"/>
-    </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
@@ -6466,13 +6447,13 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
@@ -6485,7 +6466,7 @@
         <v>138</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>17</v>
@@ -6549,14 +6530,14 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
@@ -6642,17 +6623,17 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="17" t="s">
@@ -6783,11 +6764,11 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
@@ -6901,11 +6882,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">

--- a/SpaOnline/ModeloDominio/Maestro Muestreo de Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Maestro Muestreo de Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4581D9-8DBB-4A71-AE43-B9412BBBF4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1347F1-BE1D-4D08-8DD3-F80786824EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{E97E5C00-5A89-4DD9-BF1F-FD5D66024408}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="7" xr2:uid="{E97E5C00-5A89-4DD9-BF1F-FD5D66024408}"/>
   </bookViews>
   <sheets>
     <sheet name="MaestroMuestreo" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="178">
   <si>
     <t>Productos</t>
   </si>
@@ -942,7 +942,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1086,6 +1086,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2477,13 +2487,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>258301</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>29132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3205,7 +3215,7 @@
       </c>
       <c r="E4" s="24" t="str">
         <f>G26 &amp;"  "&amp;G27</f>
-        <v>Crema de Día Anti-edad-L'Oréal  Dermalogica Daily Microfoliant-Dermalogica</v>
+        <v>Crema de Día Anti-edad  Dermalogica Daily Microfoliant</v>
       </c>
       <c r="F4" s="46">
         <v>320000</v>
@@ -3258,7 +3268,7 @@
       </c>
       <c r="E6" s="24" t="str">
         <f t="shared" ref="E6" si="0">G28</f>
-        <v>Daily Moisture Lotion-Lubridem</v>
+        <v>Daily Moisture Lotion</v>
       </c>
       <c r="F6" s="46">
         <v>100000</v>
@@ -3461,7 +3471,7 @@
       </c>
       <c r="C26" s="24" t="str">
         <f>'Inventarios - Muestreo Datos'!C16</f>
-        <v>Crema de Día Anti-edad-L'Oréal</v>
+        <v>Crema de Día Anti-edad</v>
       </c>
       <c r="D26" s="19">
         <v>10</v>
@@ -3474,7 +3484,7 @@
       </c>
       <c r="G26" s="37" t="str">
         <f>C26</f>
-        <v>Crema de Día Anti-edad-L'Oréal</v>
+        <v>Crema de Día Anti-edad</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -3483,7 +3493,7 @@
       </c>
       <c r="C27" s="24" t="str">
         <f>'Inventarios - Muestreo Datos'!C17</f>
-        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
+        <v>Dermalogica Daily Microfoliant</v>
       </c>
       <c r="D27" s="19">
         <v>50</v>
@@ -3496,7 +3506,7 @@
       </c>
       <c r="G27" s="37" t="str">
         <f>C27</f>
-        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
+        <v>Dermalogica Daily Microfoliant</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -3505,7 +3515,7 @@
       </c>
       <c r="C28" s="24" t="str">
         <f>'Inventarios - Muestreo Datos'!C18</f>
-        <v>Daily Moisture Lotion-Lubridem</v>
+        <v>Daily Moisture Lotion</v>
       </c>
       <c r="D28" s="19">
         <v>100</v>
@@ -3518,7 +3528,7 @@
       </c>
       <c r="G28" s="37" t="str">
         <f>C28</f>
-        <v>Daily Moisture Lotion-Lubridem</v>
+        <v>Daily Moisture Lotion</v>
       </c>
     </row>
   </sheetData>
@@ -3540,7 +3550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480D42DE-BE10-4854-BA9A-99F4B4B7DA5B}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4130,8 +4140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A9BC30-84DE-4F96-B9D6-9CF0DA2E4F6C}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,7 +4432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF957B5F-6B0F-448E-A7AC-A7CDC29ABFAE}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="E23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4548,7 +4560,7 @@
       </c>
       <c r="C16" s="24" t="str">
         <f>C26</f>
-        <v>Crema de Día Anti-edad-L'Oréal</v>
+        <v>Crema de Día Anti-edad</v>
       </c>
       <c r="D16" s="19">
         <v>10</v>
@@ -4561,7 +4573,7 @@
       </c>
       <c r="G16" s="37" t="str">
         <f>C16</f>
-        <v>Crema de Día Anti-edad-L'Oréal</v>
+        <v>Crema de Día Anti-edad</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -4570,7 +4582,7 @@
       </c>
       <c r="C17" s="24" t="str">
         <f t="shared" ref="C17:C18" si="2">C27</f>
-        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
+        <v>Dermalogica Daily Microfoliant</v>
       </c>
       <c r="D17" s="19">
         <v>50</v>
@@ -4583,7 +4595,7 @@
       </c>
       <c r="G17" s="37" t="str">
         <f>C17</f>
-        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
+        <v>Dermalogica Daily Microfoliant</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -4592,7 +4604,7 @@
       </c>
       <c r="C18" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>Daily Moisture Lotion-Lubridem</v>
+        <v>Daily Moisture Lotion</v>
       </c>
       <c r="D18" s="19">
         <v>100</v>
@@ -4605,7 +4617,7 @@
       </c>
       <c r="G18" s="37" t="str">
         <f>C18</f>
-        <v>Daily Moisture Lotion-Lubridem</v>
+        <v>Daily Moisture Lotion</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -4615,38 +4627,62 @@
       <c r="C24" s="63"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="47" t="s">
         <v>16</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="24" t="str">
-        <f>'Productos - Muestreo Datos'!G9</f>
-        <v>Crema de Día Anti-edad-L'Oréal</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="21">
+      <c r="C26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="19" t="str">
+        <f>'Productos - Muestreo Datos'!C16</f>
+        <v>Cuidado corporal</v>
+      </c>
+      <c r="E26" s="43">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="27">
         <v>2</v>
       </c>
-      <c r="C27" s="24" t="str">
-        <f>'Productos - Muestreo Datos'!G10</f>
-        <v>Dermalogica Daily Microfoliant-Dermalogica</v>
+      <c r="C27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="19" t="str">
+        <f>'Productos - Muestreo Datos'!C17</f>
+        <v>Cuidado facial</v>
+      </c>
+      <c r="E27" s="43">
+        <v>30000</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>3</v>
       </c>
-      <c r="C28" s="24" t="str">
-        <f>'Productos - Muestreo Datos'!G11</f>
-        <v>Daily Moisture Lotion-Lubridem</v>
+      <c r="C28" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="19" t="str">
+        <f>'Productos - Muestreo Datos'!C18</f>
+        <v>Masajes</v>
+      </c>
+      <c r="E28" s="43">
+        <v>45000</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -4800,18 +4836,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C16EB-37C4-464A-BCB1-03F5B6ADBC1C}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
@@ -4866,23 +4903,23 @@
         <v>900811919</v>
       </c>
       <c r="E6" s="19" t="str">
-        <f>D33</f>
+        <f>C32</f>
         <v>NIT</v>
       </c>
       <c r="F6" s="19" t="str">
-        <f>G24</f>
-        <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
+        <f>C23&amp;"-"&amp;C24</f>
+        <v>Jhoana Andrea Gómez Gómez -Nathaly perez Zapata</v>
       </c>
       <c r="G6" s="24" t="str">
-        <f>E16&amp;"-"&amp;G19</f>
-        <v>Jhonatan12353-Juan Pablo Rendon Gómez-JPR3214</v>
+        <f>C15&amp;"-"&amp;C16&amp;"-"&amp;C17</f>
+        <v>Jhonatan Arley Gómez -Cristian David Ospina Ospina-Luis Ospina</v>
       </c>
       <c r="H6" s="20" t="str">
         <f>D6&amp;"-"&amp;E6&amp;"-"&amp;C6</f>
         <v>900811919-NIT-SpaOnline</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
         <v>2</v>
       </c>
@@ -4893,388 +4930,291 @@
         <v>811912382</v>
       </c>
       <c r="E7" s="19" t="str">
-        <f>D33</f>
+        <f>C32</f>
         <v>NIT</v>
       </c>
       <c r="F7" s="19" t="str">
-        <f>G25</f>
+        <f>C25</f>
+        <v xml:space="preserve">Camilo Saldarriaga </v>
+      </c>
+      <c r="G7" s="24" t="str">
+        <f>C18</f>
+        <v>Juan Pablo Rendon Gómez</v>
+      </c>
+      <c r="H7" s="20" t="str">
+        <f t="shared" ref="H7" si="0">D7&amp;"-"&amp;E7&amp;"-"&amp;C7</f>
+        <v>811912382-NIT-SpaManitas</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1038419180</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="23" t="str">
+        <f>C15&amp;"-"&amp;E15</f>
+        <v>Jhonatan Arley Gómez -Jhonatan12353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="19">
+        <v>2</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1038419181</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="23" t="str">
+        <f t="shared" ref="F16:F18" si="1">C16&amp;"-"&amp;E16</f>
+        <v>Cristian David Ospina Ospina-Cristian123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1038419182</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Luis Ospina-LuisOs432</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>4</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1038419183</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Juan Pablo Rendon Gómez-JPR3214</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1036416237</v>
+      </c>
+      <c r="F23" s="23" t="str">
+        <f>C23&amp;"-"&amp;D23</f>
+        <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
+        <v>2</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1037310292</v>
+      </c>
+      <c r="F24" s="23" t="str">
+        <f>C24&amp;"-"&amp;D24</f>
         <v>Nathaly perez Zapata-nathaly801</v>
       </c>
-      <c r="G7" s="24" t="str">
-        <f t="shared" ref="G7:G8" si="0">E17</f>
-        <v>Cristian123</v>
-      </c>
-      <c r="H7" s="20" t="str">
-        <f t="shared" ref="H7:H8" si="1">D7&amp;"-"&amp;E7&amp;"-"&amp;C7</f>
-        <v>811912382-NIT-SpaManitas</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
+        <v>3</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="19">
+        <v>10384182321</v>
+      </c>
+      <c r="F25" s="23" t="str">
+        <f>C25&amp;"-"&amp;D25</f>
+        <v>Camilo Saldarriaga -salda2212</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="77"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
+        <v>1</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
         <v>2</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="19">
-        <v>830411223</v>
-      </c>
-      <c r="E8" s="19" t="str">
-        <f>D33</f>
-        <v>NIT</v>
-      </c>
-      <c r="F8" s="19" t="str">
-        <f>G26</f>
-        <v>Camilo Saldarriaga -salda2212</v>
-      </c>
-      <c r="G8" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>LuisOs432</v>
-      </c>
-      <c r="H8" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>830411223-NIT-SpaOriente</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
-        <v>1</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="19">
-        <v>1038419180</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="19" t="str">
-        <f>H6</f>
-        <v>900811919-NIT-SpaOnline</v>
-      </c>
-      <c r="G16" s="23" t="str">
-        <f>C16&amp;"-"&amp;E16</f>
-        <v>Jhonatan Arley Gómez -Jhonatan12353</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="19">
-        <v>2</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1038419181</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="19" t="str">
-        <f t="shared" ref="F17:F18" si="2">H7</f>
-        <v>811912382-NIT-SpaManitas</v>
-      </c>
-      <c r="G17" s="23" t="str">
-        <f t="shared" ref="G17:G19" si="3">C17&amp;"-"&amp;E17</f>
-        <v>Cristian David Ospina Ospina-Cristian123</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="19">
+      <c r="C32" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="19">
         <v>3</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="19">
-        <v>1038419182</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>830411223-NIT-SpaOriente</v>
-      </c>
-      <c r="G18" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>Luis Ospina-LuisOs432</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="19">
+      <c r="C33" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="19">
         <v>4</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1038419183</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="19" t="str">
-        <f>H6</f>
-        <v>900811919-NIT-SpaOnline</v>
-      </c>
-      <c r="G19" s="23" t="str">
-        <f t="shared" si="3"/>
-        <v>Juan Pablo Rendon Gómez-JPR3214</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="19">
-        <v>1</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="19">
-        <v>1036416237</v>
-      </c>
-      <c r="F24" s="19" t="str">
-        <f>H6</f>
-        <v>900811919-NIT-SpaOnline</v>
-      </c>
-      <c r="G24" s="23" t="str">
-        <f>C24&amp;"-"&amp;D24</f>
-        <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="19">
-        <v>1037310292</v>
-      </c>
-      <c r="F25" s="19" t="str">
-        <f>H7</f>
-        <v>811912382-NIT-SpaManitas</v>
-      </c>
-      <c r="G25" s="23" t="str">
-        <f>C25&amp;"-"&amp;D25</f>
-        <v>Nathaly perez Zapata-nathaly801</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="19">
-        <v>3</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="19">
-        <v>10384182321</v>
-      </c>
-      <c r="F26" s="19" t="str">
-        <f>H8</f>
-        <v>830411223-NIT-SpaOriente</v>
-      </c>
-      <c r="G26" s="23" t="str">
-        <f>C26&amp;"-"&amp;D26</f>
-        <v>Camilo Saldarriaga -salda2212</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="19">
-        <v>1</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="20" t="str">
-        <f>C32</f>
-        <v>RUT</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="19">
-        <v>2</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="20" t="str">
-        <f t="shared" ref="D33:D39" si="4">C33</f>
-        <v>NIT</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="19">
-        <v>3</v>
-      </c>
       <c r="C34" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>RNE</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>RUC</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>NIF</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>CC</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>Pasaporte</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="19">
-        <v>8</v>
-      </c>
-      <c r="C39" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>TI</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B30:D30"/>
+  <mergeCells count="3">
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="MaestroMuestreo!A1" display="Volver al Inicio" xr:uid="{C2BA9F55-E0F2-43A7-9A8D-8FADD2B50C84}"/>
@@ -5433,9 +5373,9 @@
       <c r="C9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="19" t="e">
         <f t="shared" si="0"/>
-        <v>830411223-NIT-SpaOriente</v>
+        <v>#REF!</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>176</v>
@@ -5750,11 +5690,11 @@
       </c>
       <c r="F35" s="19" t="str">
         <f>'Institucio - Muestreo Datos'!F6</f>
-        <v>Jhoana Andrea Gómez Gómez -Jhoanago13</v>
+        <v>Jhoana Andrea Gómez Gómez -Nathaly perez Zapata</v>
       </c>
       <c r="G35" s="24" t="str">
         <f>'Institucio - Muestreo Datos'!G6</f>
-        <v>Jhonatan12353-Juan Pablo Rendon Gómez-JPR3214</v>
+        <v>Jhonatan Arley Gómez -Cristian David Ospina Ospina-Luis Ospina</v>
       </c>
       <c r="H35" s="20" t="str">
         <f>D35&amp;"-"&amp;E35&amp;"-"&amp;C35</f>
@@ -5777,11 +5717,11 @@
       </c>
       <c r="F36" s="19" t="str">
         <f>'Institucio - Muestreo Datos'!F7</f>
-        <v>Nathaly perez Zapata-nathaly801</v>
+        <v xml:space="preserve">Camilo Saldarriaga </v>
       </c>
       <c r="G36" s="24" t="str">
         <f>'Institucio - Muestreo Datos'!G7</f>
-        <v>Cristian123</v>
+        <v>Juan Pablo Rendon Gómez</v>
       </c>
       <c r="H36" s="20" t="str">
         <f t="shared" ref="H36:H37" si="4">D36&amp;"-"&amp;E36&amp;"-"&amp;C36</f>
@@ -5798,21 +5738,21 @@
       <c r="D37" s="19">
         <v>830411223</v>
       </c>
-      <c r="E37" s="19" t="str">
-        <f>'Institucio - Muestreo Datos'!E8</f>
-        <v>NIT</v>
-      </c>
-      <c r="F37" s="19" t="str">
-        <f>'Institucio - Muestreo Datos'!F8</f>
-        <v>Camilo Saldarriaga -salda2212</v>
-      </c>
-      <c r="G37" s="24" t="str">
-        <f>'Institucio - Muestreo Datos'!G8</f>
-        <v>LuisOs432</v>
-      </c>
-      <c r="H37" s="20" t="str">
+      <c r="E37" s="19" t="e">
+        <f>'Institucio - Muestreo Datos'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F37" s="19" t="e">
+        <f>'Institucio - Muestreo Datos'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G37" s="24" t="e">
+        <f>'Institucio - Muestreo Datos'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="20" t="e">
         <f t="shared" si="4"/>
-        <v>830411223-NIT-SpaOriente</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -5846,7 +5786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141E8134-1C4C-4862-A89B-EED8A153E18D}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6108,7 +6050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC07E9D3-5F73-4E3F-BC8B-C0E18DC9C061}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -6737,9 +6679,9 @@
       <c r="C53" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="19" t="str">
+      <c r="D53" s="19" t="e">
         <f>'Sucursales - Muestreo Datos'!D9</f>
-        <v>830411223-NIT-SpaOriente</v>
+        <v>#REF!</v>
       </c>
       <c r="E53" s="22" t="str">
         <f>'Sucursales - Muestreo Datos'!F9</f>
